--- a/data/trans_camb/P27-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P27-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>11,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,42</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>-14,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,28</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-5,12</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 4,81</t>
+          <t>-13,06; 14,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 15,01</t>
+          <t>-1,72; 25,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 18,25</t>
+          <t>-6,74; 28,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -1,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 11,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 9,8</t>
+          <t>-13,64; 5,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,38; -1,22</t>
+          <t>-2,61; 15,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 10,68</t>
+          <t>-25,78; -2,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 11,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-10,27; 7,29</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 16,28</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-14,96; 5,8</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>-5,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-13,46%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>-22,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-3,82%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,42%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-8,92%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 9,43</t>
+          <t>-22,57; 36,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 31,48</t>
+          <t>-3,33; 63,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 37,8</t>
+          <t>-11,9; 75,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,61; -2,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 18,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 16,2</t>
+          <t>-19,55; 9,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,04; -2,12</t>
+          <t>-3,66; 27,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 18,13</t>
+          <t>-37,88; -3,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 19,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-16,39; 14,32</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 31,75</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-23,82; 11,47</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 4,79</t>
+          <t>-7,45; 9,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 9,42</t>
+          <t>-3,83; 11,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 14,19</t>
+          <t>-7,67; 10,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 8,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 10,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 14,81</t>
+          <t>-5,01; 8,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,45</t>
+          <t>-4,25; 8,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 7,53</t>
+          <t>-13,45; 1,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 11,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 6,45</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 7,59</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-7,77; 3,69</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,5%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>-8,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-4,29%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 11,34</t>
+          <t>-15,14; 24,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 22,77</t>
+          <t>-7,95; 30,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 33,97</t>
+          <t>-15,65; 27,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 15,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 19,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 27,38</t>
+          <t>-7,89; 14,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 9,08</t>
+          <t>-6,69; 15,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 15,4</t>
+          <t>-21,44; 3,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 24,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-7,73; 12,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 15,6</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-14,24; 7,57</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,02</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,9</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 8,05</t>
+          <t>-9,56; 8,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 12,78</t>
+          <t>-6,29; 10,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 22,37</t>
+          <t>-7,53; 11,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 10,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 11,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 17,0</t>
+          <t>-5,35; 9,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 7,59</t>
+          <t>-3,24; 10,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 10,45</t>
+          <t>-11,29; 4,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,67; 17,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 6,47</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 8,62</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 4,8</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>-2,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>-7,14%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-2,16%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 19,21</t>
+          <t>-17,14; 18,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 29,52</t>
+          <t>-11,42; 22,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,2; 51,2</t>
+          <t>-14,11; 24,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 22,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 24,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 35,24</t>
+          <t>-9,64; 19,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 16,08</t>
+          <t>-5,39; 21,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 22,72</t>
+          <t>-19,42; 8,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,07; 38,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-9,73; 13,01</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 17,65</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-13,36; 9,54</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,51</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-4,76</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 2,67</t>
+          <t>-10,48; 5,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 8,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 14,19</t>
+          <t>-14,46; 1,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 3,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,31; 8,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,28; 11,82</t>
+          <t>-7,23; 6,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 2,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 7,52</t>
+          <t>-10,14; 3,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,46; 11,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 3,39</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-9,71; 1,06</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,95%</t>
+          <t>-5,8%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>-13,75%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>-4,82%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-3,51%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-9,38%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 5,86</t>
+          <t>-21,29; 12,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 17,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,86; 31,62</t>
+          <t>-28,85; 3,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 7,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,17; 16,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,7; 21,43</t>
+          <t>-12,36; 11,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 5,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,45; 14,48</t>
+          <t>-17,73; 7,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,11; 22,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-13,26; 6,99</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-18,42; 2,14</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5,07</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-5,32</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5,18</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-2,76</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 3,88</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 10,11</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 4,98</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 4,8</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 8,3</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,38; -0,85</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 3,15</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 8,12</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 0,33</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-1,05%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11,38%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-0,25%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8,84%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-9,28%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-5,29%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-10,27; 8,62</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 23,02</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-9,83; 11,4</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 8,72</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 15,0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-15,87; -1,53</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 6,19</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 16,17</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-11,2; 0,62</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
